--- a/Coding_test/practice_turn_3/복습 목록.xlsx
+++ b/Coding_test/practice_turn_3/복습 목록.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlseh\Desktop\Study_Algorithm_Python\Coding_test\practice_turn_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Study_Algorithm_Python\Coding_test\practice_turn_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>볼링공 고르기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,14 +115,6 @@
   </si>
   <si>
     <t>퇴사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배치하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -192,6 +184,10 @@
   </si>
   <si>
     <t>그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병사 배치하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +252,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -393,13 +389,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -409,9 +463,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -469,6 +520,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -478,8 +553,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -496,14 +571,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,348 +854,339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G36"/>
+  <dimension ref="B2:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.875" style="7" customWidth="1"/>
     <col min="3" max="3" width="5.5" customWidth="1"/>
     <col min="4" max="4" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
-        <v>34</v>
+      <c r="B3" s="34" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28"/>
-      <c r="C4" s="11">
+      <c r="B4" s="35"/>
+      <c r="C4" s="10">
         <v>2</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="12">
+        <v>3</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="37"/>
+      <c r="C6" s="14">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="37"/>
+      <c r="C7" s="14">
+        <v>5</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="37"/>
+      <c r="C8" s="14">
+        <v>6</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="37"/>
+      <c r="C9" s="14">
+        <v>7</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="38"/>
+      <c r="C10" s="8">
+        <v>8</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="18">
+        <v>9</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="37"/>
+      <c r="C12" s="14">
+        <v>10</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="37"/>
+      <c r="C13" s="14">
+        <v>11</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="37"/>
+      <c r="C14" s="14">
+        <v>12</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="37"/>
+      <c r="C15" s="17">
+        <v>13</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="37"/>
+      <c r="C16" s="20">
+        <v>14</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="37"/>
+      <c r="C17" s="17">
+        <v>15</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="38"/>
+      <c r="C18" s="8">
+        <v>16</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="34" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" s="13">
-        <v>3</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="30"/>
-      <c r="C6" s="15">
-        <v>4</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="30"/>
-      <c r="C7" s="15">
-        <v>5</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="30"/>
-      <c r="C8" s="15">
-        <v>6</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="30"/>
-      <c r="C9" s="15">
-        <v>7</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="31"/>
-      <c r="C10" s="9">
-        <v>8</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="19">
-        <v>9</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="15">
-        <v>10</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="30"/>
-      <c r="C13" s="15">
-        <v>11</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="30"/>
-      <c r="C14" s="15">
-        <v>12</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="30"/>
-      <c r="C15" s="18">
-        <v>13</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="30"/>
-      <c r="C16" s="21">
-        <v>14</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="30"/>
-      <c r="C17" s="18">
-        <v>15</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="31"/>
-      <c r="C18" s="9">
-        <v>16</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="27" t="s">
-        <v>37</v>
       </c>
       <c r="C19" s="2">
         <v>17</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="34"/>
-      <c r="C20" s="4">
+      <c r="B20" s="33"/>
+      <c r="C20" s="3">
         <v>18</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="28"/>
-      <c r="C21" s="11">
+      <c r="B21" s="35"/>
+      <c r="C21" s="10">
         <v>19</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="18">
+        <v>20</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="38"/>
+      <c r="C23" s="22">
+        <v>21</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="18">
+        <v>22</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="37"/>
+      <c r="C25" s="28">
+        <v>23</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="37"/>
+      <c r="C26" s="28">
+        <v>24</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="37"/>
+      <c r="C27" s="14">
+        <v>25</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="37"/>
+      <c r="C28" s="3">
+        <v>26</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="19">
-        <v>20</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="31"/>
-      <c r="C23" s="32">
-        <v>21</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="26" t="s">
+      <c r="C29" s="24">
+        <v>27</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="31"/>
+      <c r="C30" s="25">
+        <v>28</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="31"/>
+      <c r="C31" s="25">
+        <v>29</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="32"/>
+      <c r="C32" s="26">
+        <v>30</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="2">
-        <v>22</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="4">
-        <v>23</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="4">
-        <v>24</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="4">
-        <v>25</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="24"/>
-      <c r="C28" s="4">
-        <v>26</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="25"/>
-      <c r="C29" s="3">
+      <c r="C33" s="27">
         <v>27</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="D33" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="31"/>
+      <c r="C34" s="25">
         <v>28</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="24"/>
-      <c r="C31" s="4">
+      <c r="D34" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="32"/>
+      <c r="C35" s="26">
         <v>29</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="24"/>
-      <c r="C32" s="4">
-        <v>30</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="25"/>
-      <c r="C33" s="3">
+      <c r="D35" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="2">
-        <v>32</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="24"/>
-      <c r="C35" s="4">
-        <v>33</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="25"/>
-      <c r="C36" s="3">
-        <v>34</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B24:B28"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="B11:B18"/>

--- a/Coding_test/practice_turn_3/복습 목록.xlsx
+++ b/Coding_test/practice_turn_3/복습 목록.xlsx
@@ -453,7 +453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -469,9 +469,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -526,53 +523,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -857,19 +854,19 @@
   <dimension ref="B2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B33" sqref="B33:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="17.875" style="6" customWidth="1"/>
     <col min="3" max="3" width="5.5" customWidth="1"/>
     <col min="4" max="4" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="27" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="2">
@@ -880,146 +877,146 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="35"/>
-      <c r="C4" s="10">
+      <c r="B4" s="29"/>
+      <c r="C4" s="9">
         <v>2</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>3</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="37"/>
-      <c r="C6" s="14">
+      <c r="B6" s="31"/>
+      <c r="C6" s="13">
         <v>4</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="37"/>
-      <c r="C7" s="14">
+      <c r="B7" s="31"/>
+      <c r="C7" s="13">
         <v>5</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="37"/>
-      <c r="C8" s="14">
+      <c r="B8" s="31"/>
+      <c r="C8" s="13">
         <v>6</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="37"/>
-      <c r="C9" s="14">
+      <c r="B9" s="31"/>
+      <c r="C9" s="13">
         <v>7</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="38"/>
-      <c r="C10" s="8">
+      <c r="B10" s="33"/>
+      <c r="C10" s="7">
         <v>8</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>9</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="37"/>
-      <c r="C12" s="14">
+      <c r="B12" s="31"/>
+      <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="37"/>
-      <c r="C13" s="14">
+      <c r="B13" s="31"/>
+      <c r="C13" s="13">
         <v>11</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="37"/>
-      <c r="C14" s="14">
+      <c r="B14" s="31"/>
+      <c r="C14" s="13">
         <v>12</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="37"/>
-      <c r="C15" s="17">
+      <c r="B15" s="31"/>
+      <c r="C15" s="16">
         <v>13</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="37"/>
-      <c r="C16" s="20">
+      <c r="B16" s="31"/>
+      <c r="C16" s="19">
         <v>14</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="37"/>
-      <c r="C17" s="17">
+      <c r="B17" s="31"/>
+      <c r="C17" s="16">
         <v>15</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="38"/>
-      <c r="C18" s="8">
+      <c r="B18" s="33"/>
+      <c r="C18" s="7">
         <v>16</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="27" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="2">
@@ -1030,155 +1027,155 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="33"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="3">
         <v>18</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="35"/>
-      <c r="C21" s="10">
+      <c r="B21" s="29"/>
+      <c r="C21" s="9">
         <v>19</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="17">
         <v>20</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="38"/>
-      <c r="C23" s="22">
+      <c r="B23" s="33"/>
+      <c r="C23" s="21">
         <v>21</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="17">
         <v>22</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="37"/>
-      <c r="C25" s="28">
+      <c r="B25" s="31"/>
+      <c r="C25" s="23">
         <v>23</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="37"/>
-      <c r="C26" s="28">
+      <c r="B26" s="31"/>
+      <c r="C26" s="23">
         <v>24</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="37"/>
-      <c r="C27" s="14">
+      <c r="B27" s="31"/>
+      <c r="C27" s="13">
         <v>25</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="37"/>
-      <c r="C28" s="3">
+      <c r="B28" s="31"/>
+      <c r="C28" s="16">
         <v>26</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="25">
         <v>27</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="31"/>
-      <c r="C30" s="25">
+      <c r="B30" s="28"/>
+      <c r="C30" s="26">
         <v>28</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="31"/>
-      <c r="C31" s="25">
+      <c r="B31" s="28"/>
+      <c r="C31" s="26">
         <v>29</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="32"/>
-      <c r="C32" s="26">
+      <c r="B32" s="29"/>
+      <c r="C32" s="35">
         <v>30</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33" s="37">
         <v>27</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="31"/>
-      <c r="C34" s="25">
+      <c r="C34" s="34">
         <v>28</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="32"/>
-      <c r="C35" s="26">
+      <c r="B35" s="33"/>
+      <c r="C35" s="38">
         <v>29</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="22" t="s">
         <v>31</v>
       </c>
     </row>
